--- a/학습자료/단답형/국어_복습_고쳐쓰기.xlsx
+++ b/학습자료/단답형/국어_복습_고쳐쓰기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +617,348 @@
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>다음 문제를 [풀어라]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>풀라</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>정부는 빈곤 문제에 대한 대책을 [세워라]</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>세우라</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>보기를 읽고 알맞은 답을 [골라라]</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>고르라</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>아버지께서는 생각이 [계신다]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>있으시다</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>교장 선생님의 말씀이 [계시겠습니다]</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>있으시겠습니다</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>전해 드릴 말씀이 [계신] 분, 계세요?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>있으신</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>전해 드릴 말씀이 있으신 분, [있으세요?]</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>계세요?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>주문하신 커피 [나오셨습니다]</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>나왔습니다</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>문의하신 상품은 [품절이십니다]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>품절입니다</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>말씀하신 사이즈가 [없으십니다]</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>없습니다</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(상점에서) [포장이세요?]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>포장해 드릴까요?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>손님, 여기 주문하신 물건이 [있으시겠습니다]</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>있습니다</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>이 물건의 가격은 만 원[되시겠습니다]</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>입니다</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>할아버지, [아버지께서 오셨습니다]</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>아버지가 왔습니다</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>어머니, [할머니가 왔습니다]</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>할머니께서 오셨습니다</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(평사원이) 사장님, [이 과장 어디갔습니까?]</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>이 과장님 어디 가셨습니까?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>나는 아버지를 [데리고] 집으로 왔다</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>모시고</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>나는 그 고구마를 선생님께 [주었다]</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>드렸다</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>나는 그것을 선생님께 [물었다]</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>여쭈었다</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>고쳐쓰기</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
